--- a/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>38,56%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 71,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 250,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,99</t>
         </is>
       </c>
     </row>
@@ -694,22 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,57%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; -2,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; -2,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>51,97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; 92,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 20,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 26,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,58%</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 23,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 41,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 30,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 69,93</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; -3,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; -3,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 0,0</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 9,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 7,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 11,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 8,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 54,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 20,76</t>
+          <t>-9,74; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 26,53</t>
+          <t>-9,74; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,44</t>
+          <t>0,0; 70,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,12</t>
+          <t>0,0; 26,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,04</t>
+          <t>0,0; 37,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 250,18</t>
+          <t>0,0; 240,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,07</t>
+          <t>0,0; 36,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,99</t>
+          <t>0,0; 59,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -2,69</t>
+          <t>-23,14; -2,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -2,69</t>
+          <t>-23,14; -2,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 92,65</t>
+          <t>-7,45; 99,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,0</t>
+          <t>-12,0; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,36; —</t>
+          <t>-7,39; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,0</t>
+          <t>-12,0; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 0,0</t>
+          <t>-16,85; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,14 +987,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 0,0</t>
+          <t>-16,85; 0,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 23,03</t>
+          <t>-5,56; 23,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 41,16</t>
+          <t>4,94; 40,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 30,72</t>
+          <t>-5,57; 31,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 69,93</t>
+          <t>5,19; 68,93</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,73; -3,14</t>
+          <t>-18,82; -3,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,0</t>
+          <t>-8,41; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 0,0</t>
+          <t>-10,44; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,73; -3,14</t>
+          <t>-18,82; -3,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,0</t>
+          <t>-8,41; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 0,0</t>
+          <t>-10,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,62</t>
+          <t>-4,02; 9,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,62</t>
+          <t>-1,16; 2,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,75</t>
+          <t>-0,86; 8,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 11,15</t>
+          <t>-4,08; 11,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,75</t>
+          <t>-1,16; 3,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,55</t>
+          <t>-0,88; 8,95</t>
         </is>
       </c>
     </row>
